--- a/biology/Zoologie/Euharamiyida/Euharamiyida.xlsx
+++ b/biology/Zoologie/Euharamiyida/Euharamiyida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Euharamiyida forment un clade éteint d'Haramiyida, des mammaliaformes basaux. À son érection en 2014 par Bi Shundong et ses collègues ce groupe était considéré comme un clade  d'allothériens en groupe frère des multituberculés[1],[3]. Il est aujourd'hui placé parmi les mammaliaformes en dehors (en amont) du groupe-couronne des mammifères[4],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Euharamiyida forment un clade éteint d'Haramiyida, des mammaliaformes basaux. À son érection en 2014 par Bi Shundong et ses collègues ce groupe était considéré comme un clade  d'allothériens en groupe frère des multituberculés,. Il est aujourd'hui placé parmi les mammaliaformes en dehors (en amont) du groupe-couronne des mammifères,.
 Ils sont connus principalement dans le nord-est de la Chine, dans la formation de Tiaojishan datée de la fin du Jurassique moyen et du Jurassique supérieur.
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leur apparence générale, par convergence évolutive, rappelle celle de nos rongeurs modernes. Ce sont des animaux de petite taille principalement arboricoles. Certains d'entre eux, comme Maiopatagium, Vilevolodon et Xianshou,  montrent des membranes de peau tendues entre leurs membres (patagiums) qui leur permettaient d’effectuer des vols planés à la manière des écureuils volants actuels[6],[7],[2]. 
-Ces mammifères seraient apparus il y a environ 208 millions d'années, au Trias supérieur[3], puis se sont grandement diversifiés au Jurassique.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur apparence générale, par convergence évolutive, rappelle celle de nos rongeurs modernes. Ce sont des animaux de petite taille principalement arboricoles. Certains d'entre eux, comme Maiopatagium, Vilevolodon et Xianshou,  montrent des membranes de peau tendues entre leurs membres (patagiums) qui leur permettaient d’effectuer des vols planés à la manière des écureuils volants actuels. 
+Ces mammifères seraient apparus il y a environ 208 millions d'années, au Trias supérieur, puis se sont grandement diversifiés au Jurassique.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Liste des sous-taxons</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Millsodon Butler et Hooker, 2005
 Eleutherodontidae Kermack et al., 1998
@@ -552,7 +568,7 @@
 Maiopatagium Luo et al., 2017
 Megaconus Zhou et al., 2013
 Sineleutherus Martin, Averianov et Pfretzschner, 2010
-Vilevolodon  Luo et al.[2], 2017
+Vilevolodon  Luo et al., 2017
 Xianshou Wang, Meng, Bi, Guan et Sheng, 2014
 Arboroharamiyidae Zheng et al., 2013
 Arboroharamiya Zheng et al., 2013
